--- a/Damodaran SP500 Bonds 22020611 - histretSP.xlsx
+++ b/Damodaran SP500 Bonds 22020611 - histretSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/324c1e38712a118f/Excel JB 2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A52B9A22-596D-4445-A26A-5469C7C931F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{A52B9A22-596D-4445-A26A-5469C7C931F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C2CC21D-485F-4A72-9C8D-73A2F910EF81}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1565,7 +1565,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1883,15 +1883,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="36" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1933,47 +1970,8 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1981,7 +1979,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -7888,7 +7893,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12601,8 +12606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75"/>
@@ -12627,45 +12632,45 @@
       <c r="A1" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="140">
+      <c r="B1" s="153">
         <v>43100</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="142"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="145"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="158"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="121"/>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="162"/>
+      <c r="H3" s="168"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -12675,57 +12680,57 @@
       <c r="A4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="161"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="151"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="164"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="158"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" thickBot="1">
       <c r="A7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="165"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
     </row>
     <row r="8" spans="1:18" s="15" customFormat="1" ht="18.75">
       <c r="A8" s="14" t="s">
@@ -12763,7 +12768,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="12">
-        <v>2021</v>
+        <v>1928</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>19</v>
@@ -12786,7 +12791,7 @@
       </c>
       <c r="D12" s="82">
         <f>IF(C10=1928,100,VLOOKUP(C10-1,A19:I112,7))</f>
-        <v>592914.79859087302</v>
+        <v>100</v>
       </c>
       <c r="E12" s="132"/>
       <c r="Q12" s="3"/>
@@ -12798,13 +12803,10 @@
       </c>
       <c r="D13" s="82">
         <f>IF(C10=1928,100,VLOOKUP(C10-1,A19:I112,8))</f>
-        <v>2081.8152316441997</v>
+        <v>100</v>
       </c>
       <c r="E13" s="132"/>
-      <c r="G13" s="136">
-        <f>-1+(G20/100)^(1/2)</f>
-        <v>0.14838052176241079</v>
-      </c>
+      <c r="G13" s="135"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="6"/>
     </row>
@@ -12814,13 +12816,10 @@
       </c>
       <c r="D14" s="82">
         <f>IF(C10=1928,100,VLOOKUP(C10-1,A18:I112,9))</f>
-        <v>8920.9008833408589</v>
+        <v>100</v>
       </c>
       <c r="E14" s="132"/>
-      <c r="G14" s="136">
-        <f>-1+(G19/100)^(1/1)</f>
-        <v>0.43811155152887893</v>
-      </c>
+      <c r="G14" s="135"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="6"/>
     </row>
@@ -12830,46 +12829,43 @@
       </c>
       <c r="D15" s="83">
         <f>IF(C9="ST",(G112/D12)^(1/(A112-C10+1))-(H112/D13)^(1/(A112-C10+1)),(G112/D12)^(1/(A112-C10+1))-(I112/D14)^(1/(A112-C10+1)))</f>
-        <v>0.32884886200568642</v>
+        <v>5.1322006296357525E-2</v>
       </c>
       <c r="E15" s="133"/>
-      <c r="G15" s="136">
-        <f>-1+(G30/G19)^(1/101)</f>
-        <v>-1.7742851433366624E-3</v>
-      </c>
+      <c r="G15" s="135"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" thickBot="1"/>
     <row r="17" spans="1:23" ht="16.5" thickBot="1">
-      <c r="B17" s="166" t="s">
+      <c r="B17" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="119"/>
-      <c r="G17" s="166" t="s">
+      <c r="G17" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="168"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="145"/>
       <c r="K17" s="119"/>
-      <c r="L17" s="166" t="s">
+      <c r="L17" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="167"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="159" t="s">
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="151"/>
+      <c r="U17" s="151"/>
       <c r="V17" s="94"/>
       <c r="W17" s="94"/>
     </row>
@@ -20824,25 +20820,25 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="16.5" thickBot="1">
-      <c r="I113" s="155" t="s">
+      <c r="I113" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="J113" s="156"/>
+      <c r="J113" s="147"/>
       <c r="K113" s="120"/>
-      <c r="L113" s="157" t="s">
+      <c r="L113" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="M113" s="158"/>
+      <c r="M113" s="149"/>
     </row>
     <row r="114" spans="1:23">
-      <c r="A114" s="159" t="s">
+      <c r="A114" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="B114" s="160"/>
-      <c r="C114" s="160"/>
-      <c r="D114" s="160"/>
-      <c r="E114" s="160"/>
-      <c r="F114" s="160"/>
+      <c r="B114" s="151"/>
+      <c r="C114" s="151"/>
+      <c r="D114" s="151"/>
+      <c r="E114" s="151"/>
+      <c r="F114" s="151"/>
       <c r="G114" s="94"/>
       <c r="H114" s="91"/>
       <c r="I114" s="93" t="s">
@@ -20858,14 +20854,14 @@
       <c r="M114" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P114" s="161" t="s">
+      <c r="P114" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="Q114" s="161"/>
-      <c r="R114" s="161"/>
-      <c r="S114" s="161"/>
-      <c r="T114" s="161"/>
-      <c r="U114" s="161"/>
+      <c r="Q114" s="152"/>
+      <c r="R114" s="152"/>
+      <c r="S114" s="152"/>
+      <c r="T114" s="152"/>
+      <c r="U114" s="152"/>
     </row>
     <row r="115" spans="1:23">
       <c r="A115" s="1" t="s">
@@ -21077,14 +21073,14 @@
       <c r="R118" s="6"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="159" t="s">
+      <c r="A119" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B119" s="160"/>
-      <c r="C119" s="160"/>
-      <c r="D119" s="160"/>
-      <c r="E119" s="160"/>
-      <c r="F119" s="160"/>
+      <c r="B119" s="151"/>
+      <c r="C119" s="151"/>
+      <c r="D119" s="151"/>
+      <c r="E119" s="151"/>
+      <c r="F119" s="151"/>
       <c r="G119" s="94"/>
       <c r="H119" s="94"/>
       <c r="I119" s="5" t="s">
@@ -21229,12 +21225,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="L113:M113"/>
     <mergeCell ref="A119:F119"/>
     <mergeCell ref="P17:U17"/>
     <mergeCell ref="P114:U114"/>
@@ -21246,6 +21236,12 @@
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="L113:M113"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -21273,8 +21269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7BB3CC-802D-4735-8EEC-BA13077E44C4}">
   <dimension ref="A1:FV75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21302,7 +21298,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="171" t="s">
         <v>138</v>
       </c>
       <c r="D2" s="6"/>
@@ -21315,7 +21311,7 @@
         <v>137</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="12">
+      <c r="C3" s="171">
         <v>2021</v>
       </c>
       <c r="D3" s="6"/>
@@ -21328,7 +21324,7 @@
         <v>141</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="135">
+      <c r="C4" s="172">
         <v>10</v>
       </c>
       <c r="D4" s="6"/>
@@ -24995,7 +24991,7 @@
         <v>0</v>
       </c>
       <c r="FJ32" s="74">
-        <f t="shared" ref="FJ32:GO32" si="8">IF($C$2="ST",($A$72/FJ29)^(1/($A$73-FJ28+1))-($A$74/FJ30)^(1/($A$73-FJ28+1)),($A$72/FJ29)^(1/($A$73-FJ28+1))-($A$75/FJ31)^(1/($A$73-FJ28+1)))</f>
+        <f t="shared" ref="FJ32:FV32" si="8">IF($C$2="ST",($A$72/FJ29)^(1/($A$73-FJ28+1))-($A$74/FJ30)^(1/($A$73-FJ28+1)),($A$72/FJ29)^(1/($A$73-FJ28+1))-($A$75/FJ31)^(1/($A$73-FJ28+1)))</f>
         <v>0</v>
       </c>
       <c r="FK32" s="74">
@@ -25742,7 +25738,7 @@
       </c>
     </row>
     <row r="36" spans="2:178">
-      <c r="B36" s="137"/>
+      <c r="B36" s="136"/>
       <c r="E36" t="s">
         <v>140</v>
       </c>
@@ -26440,7 +26436,7 @@
       </c>
     </row>
     <row r="37" spans="2:178">
-      <c r="B37" s="137"/>
+      <c r="B37" s="136"/>
       <c r="F37" s="74"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74"/>
@@ -30091,7 +30087,7 @@
       </c>
     </row>
     <row r="45" spans="2:178">
-      <c r="F45" s="171"/>
+      <c r="F45" s="137"/>
       <c r="G45" s="74"/>
       <c r="H45" s="74"/>
       <c r="I45" s="74"/>
@@ -36552,12 +36548,6 @@
       <c r="FU69" s="74"/>
       <c r="FV69" s="74"/>
     </row>
-    <row r="71" spans="1:178">
-      <c r="F71" t="e">
-        <f>INDEX('Returns by year'!$A:$J,MATCH(F40-1,'Returns by year'!$A:$A,0),7)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="72" spans="1:178">
       <c r="A72">
         <f>INDEX('Returns by year'!$A:$J,MATCH($C$3,'Returns by year'!$A:$A,0),7)</f>
@@ -39367,14 +39357,16 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{DA1BD696-C0D1-4E3D-BA61-658678A78208}">
       <formula1>"ST,LT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
